--- a/5/06_jquery_data/stanton_hoffman/pokemon.csv.xlsx
+++ b/5/06_jquery_data/stanton_hoffman/pokemon.csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Pokemon</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Squirtle</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -878,141 +881,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>36</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8</v>
       </c>
     </row>
